--- a/report/report_cnj01接件.xlsx
+++ b/report/report_cnj01接件.xlsx
@@ -247,7 +247,7 @@
     <t>测试结果</t>
   </si>
   <si>
-    <t>cnj_st_001</t>
+    <t>cnj_st_001_登录</t>
   </si>
   <si>
     <t>海口政务系统-登录</t>
@@ -265,7 +265,7 @@
     <t>success</t>
   </si>
   <si>
-    <t>cnj_st_002</t>
+    <t>cnj_st_002_一窗受理进入</t>
   </si>
   <si>
     <t>海口政务系统-一窗受理进入</t>
@@ -280,7 +280,7 @@
     <t>进入一窗受理操作界面</t>
   </si>
   <si>
-    <t>cnj_st_003</t>
+    <t>cnj_st_003_事项搜索</t>
   </si>
   <si>
     <t>一窗受理-验证事项搜素</t>
@@ -292,7 +292,7 @@
     <t>可以搜索到事项“渔业船舶登记”并进行接件；</t>
   </si>
   <si>
-    <t>cnj_st_004</t>
+    <t>cnj_st_004_办事指南</t>
   </si>
   <si>
     <t>渔业船舶登记-办事指南</t>
@@ -304,7 +304,7 @@
     <t>基本信息、办件材料、办理流程、中介服务、拓展信息栏目页面显示合理；</t>
   </si>
   <si>
-    <t>cnj_st_005</t>
+    <t>cnj_st_005_接件流程</t>
   </si>
   <si>
     <t>渔业船舶登记-接件信息填入</t>
@@ -397,13 +397,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -411,7 +405,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -420,22 +414,6 @@
       <charset val="0"/>
       <color rgb="FF9C0006"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -451,23 +429,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -488,30 +450,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -530,6 +476,60 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -546,25 +546,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,157 +720,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,17 +740,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,26 +784,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,23 +816,27 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -845,10 +845,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="24" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="5" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -857,19 +857,19 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -878,112 +878,112 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="16" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="15" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="15" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="23" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="6" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="6" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="20" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1387,7 +1387,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="$A19:$XFD19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1803,12 +1803,12 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="28" width="13.75"/>
+    <col customWidth="1" max="1" min="1" style="28" width="25.125"/>
     <col customWidth="1" max="2" min="2" style="28" width="28.25"/>
     <col customWidth="1" max="3" min="3" style="28" width="9.375"/>
     <col customWidth="1" max="4" min="4" style="15" width="43.875"/>
@@ -1955,12 +1955,12 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="$A19:$XFD19"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="28" width="13.75"/>
+    <col customWidth="1" max="1" min="1" style="28" width="25.125"/>
     <col customWidth="1" max="2" min="2" style="26" width="30.125"/>
     <col customWidth="1" max="3" min="3" style="26" width="29.375"/>
     <col customWidth="1" max="4" min="4" style="2" width="19.875"/>
